--- a/result/experiment.xlsx
+++ b/result/experiment.xlsx
@@ -8,27 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo_Chen-Gary\MAPF\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9685AC5-7C9A-49D1-A2F9-BEE0E1F1D864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C6A7B3-DE0B-453A-BC4B-5B679E493E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="1260" windowWidth="15012" windowHeight="11100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sparse" sheetId="2" r:id="rId2"/>
     <sheet name="normal" sheetId="3" r:id="rId3"/>
     <sheet name="dense" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="exp2" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>test case</t>
   </si>
@@ -74,6 +85,15 @@
   </si>
   <si>
     <t>Map Size: 78 x 48, Task Number: 500, Robot Number: 30 (Sparse)</t>
+  </si>
+  <si>
+    <t>Robots Number</t>
+  </si>
+  <si>
+    <t>Time Steps</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
@@ -241,14 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,9 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,6 +306,2280 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Time Steps vs. Robot Number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2000000000000051E-2"/>
+                  <c:y val="-5.2902065483953049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1C14-4E5D-88AB-7B244765D435}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C14-4E5D-88AB-7B244765D435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1173302816"/>
+        <c:axId val="1173304064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1173302816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Robots Number</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173304064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1173304064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time Steps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173302816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Time Steps vs. delta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp2'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp2'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5568-40DF-9226-F71141111606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2026694064"/>
+        <c:axId val="2026693232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2026694064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>delta</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026693232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2026693232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Time Steps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026694064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E352DAAD-A624-458B-D427-9A4A0D9FD1DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B61FAB-7C7B-A4F8-78B0-C7758CCE876B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC59AC4-A702-41EF-8B57-205C8C3D7907}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,77 +2921,89 @@
     <col min="2" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>771</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>768</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>813</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5">
         <v>785</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>812</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>768</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5">
         <v>795</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>776</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>C3+D3+E3+C4+D4+E4+C5+D5+E5</f>
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>G9/9</f>
+        <v>785.88888888888891</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB8CD4B-3A1D-4FAA-A45D-5B678D4380E9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +3030,7 @@
     <col min="2" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -733,68 +3039,80 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>273</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>261</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5">
         <v>254</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>275</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5">
         <v>280</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>272</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>C3+D3+E3+C4+D4+E4+C5+D5+E5</f>
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f>G10/9</f>
+        <v>273.11111111111109</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BDBABD-A0A9-4787-A846-338E85C60F25}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,77 +3139,89 @@
     <col min="2" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>155</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>150</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5">
         <v>188</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>156</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5">
         <v>153</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>154</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>C3+D3+E3+C4+D4+E4+C5+D5+E5</f>
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>G9/9</f>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -902,4 +3232,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDA1857-B08C-4B5B-BCBD-B2D0E4236EF7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>107</v>
+      </c>
+      <c r="D1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>786</v>
+      </c>
+      <c r="C2">
+        <v>273</v>
+      </c>
+      <c r="D2">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D58E5C-471C-44A4-B7C4-2A41C2806D8D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>379</v>
+      </c>
+      <c r="B4">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB7E35B-72CD-460B-9C7A-CE853E1FC9F7}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>